--- a/biology/Zoologie/Japalura/Japalura.xlsx
+++ b/biology/Zoologie/Japalura/Japalura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Japalura est un genre de sauriens de la famille des Agamidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Japalura est un genre de sauriens de la famille des Agamidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 32 espèces de ce genre se rencontrent en Asie du Sud, en Asie de l'Est et en Asie du Sud-Est [1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 32 espèces de ce genre se rencontrent en Asie du Sud, en Asie de l'Est et en Asie du Sud-Est .
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (9 novembre 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (9 novembre 2017) :
 Japalura andersoniana Annandale, 1905
 Japalura batangensis Li, 2001
 Japalura brevicauda Manthey, Denzer, Hou &amp; Wang, 2012
@@ -604,7 +620,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Gray, 1853 : Descriptions of some undescribed species of reptiles collected by Dr. Joseph Hooker in the Khassia Mountains, East Bengal, and Sikkim Himalaya. Annals and Magazine of Natural History, sér. 2, vol. 12, p. 386-392 (texte intégral)</t>
         </is>
